--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,93 +58,96 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
@@ -154,27 +157,21 @@
     <t>years</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>cook</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
@@ -187,25 +184,25 @@
     <t>well</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>make</t>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>like</t>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3023255813953488</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -720,13 +717,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +743,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +769,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8328173374613003</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>538</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>538</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,13 +795,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8281733746130031</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -816,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -824,13 +821,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -842,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -850,13 +847,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -876,13 +873,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -902,13 +899,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6938775510204082</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -920,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -928,13 +925,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6926406926406926</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -954,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6542372881355932</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -972,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -980,13 +977,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6342857142857142</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1006,13 +1003,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6301369863013698</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1024,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1032,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
         <v>40</v>
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1058,13 +1055,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.6147672552166934</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>766</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>766</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1076,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1084,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6243980738362761</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L19">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1102,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>468</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1110,13 +1107,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6197183098591549</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1128,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1136,13 +1133,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1154,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1162,13 +1159,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.578125</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1188,13 +1185,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5964912280701754</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1206,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1214,13 +1211,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1240,13 +1237,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5299145299145299</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1266,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5238095238095238</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
         <v>33</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1292,13 +1289,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5230769230769231</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1310,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1318,13 +1315,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5149700598802395</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L28">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1344,13 +1341,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1370,13 +1367,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4939759036144578</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1396,13 +1393,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4903846153846154</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1422,13 +1419,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.481203007518797</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1440,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1448,13 +1445,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1466,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1474,13 +1471,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4216867469879518</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1492,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1500,13 +1497,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1518,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1526,13 +1523,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3383458646616541</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1544,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1552,13 +1549,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3235294117647059</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L37">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1570,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>276</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1578,13 +1575,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3229571984435798</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L38">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="M38">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1596,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>174</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1604,13 +1601,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3153153153153153</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1622,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1630,13 +1627,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2805755395683453</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1656,13 +1653,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2780821917808219</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L41">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1674,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>527</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1682,13 +1679,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2777777777777778</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1700,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1708,13 +1705,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2488038277511962</v>
+        <v>0.263013698630137</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="M43">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1726,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>157</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1734,13 +1731,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.232508073196986</v>
+        <v>0.2292787944025834</v>
       </c>
       <c r="L44">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M44">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1752,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1760,7 +1757,7 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2147651006711409</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L45">
         <v>32</v>
@@ -1778,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1786,13 +1783,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2119205298013245</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1804,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>119</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1812,13 +1809,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1818181818181818</v>
+        <v>0.1774834437086093</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1830,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>261</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1838,7 +1835,7 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1748344370860927</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="L48">
         <v>132</v>
@@ -1856,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1864,13 +1861,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1636828644501279</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L49">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1882,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>654</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1890,13 +1887,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1443298969072165</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1908,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1916,13 +1913,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1266846361185984</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L51">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1934,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>324</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1942,25 +1939,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.121654501216545</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1968,13 +1965,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1113636363636364</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L53">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1994,13 +1991,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1111111111111111</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2012,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>240</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2020,13 +2017,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.09307875894988067</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L55">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2038,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2046,25 +2043,25 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.08333333333333333</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>418</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2072,25 +2069,25 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.07173601147776183</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M57">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>647</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2098,51 +2095,25 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.05970149253731343</v>
+        <v>0.02683982683982684</v>
       </c>
       <c r="L58">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K59">
-        <v>0.03025064822817632</v>
-      </c>
-      <c r="L59">
-        <v>35</v>
-      </c>
-      <c r="M59">
-        <v>35</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
